--- a/דוח_שולי_רווח.xlsx
+++ b/דוח_שולי_רווח.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Item Name</t>
   </si>
@@ -28,157 +28,79 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>ewrr</t>
-  </si>
-  <si>
     <t>fox racing</t>
   </si>
   <si>
-    <t>fsaf</t>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>sdv</t>
   </si>
   <si>
     <t>gvs</t>
   </si>
   <si>
-    <t>herhe</t>
-  </si>
-  <si>
-    <t>hher</t>
-  </si>
-  <si>
-    <t>jeans</t>
-  </si>
-  <si>
-    <t>reg</t>
-  </si>
-  <si>
-    <t>Scarlet</t>
+    <t>shorts</t>
   </si>
   <si>
     <t>sdsd</t>
   </si>
   <si>
-    <t>sdv</t>
-  </si>
-  <si>
-    <t>shirt</t>
-  </si>
-  <si>
-    <t>shirts</t>
-  </si>
-  <si>
-    <t>shorts</t>
-  </si>
-  <si>
-    <t>vwnvo</t>
-  </si>
-  <si>
-    <t>wbre</t>
-  </si>
-  <si>
-    <t>weg</t>
-  </si>
-  <si>
-    <t>5.97</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>4723.11</t>
+    <t>t-shirt</t>
   </si>
   <si>
     <t>1329.68</t>
   </si>
   <si>
-    <t>258.00</t>
-  </si>
-  <si>
-    <t>52975.00</t>
-  </si>
-  <si>
-    <t>12815.64</t>
-  </si>
-  <si>
-    <t>7958.00</t>
-  </si>
-  <si>
-    <t>1649.67</t>
-  </si>
-  <si>
-    <t>26565.00</t>
-  </si>
-  <si>
-    <t>1954.37</t>
-  </si>
-  <si>
-    <t>11352.00</t>
-  </si>
-  <si>
-    <t>96205.21</t>
-  </si>
-  <si>
-    <t>579.71</t>
-  </si>
-  <si>
-    <t>4275.00</t>
+    <t>4140.00</t>
+  </si>
+  <si>
+    <t>1599.68</t>
+  </si>
+  <si>
+    <t>359.82</t>
+  </si>
+  <si>
+    <t>6247.81</t>
+  </si>
+  <si>
+    <t>7150.00</t>
   </si>
   <si>
     <t>2699.40</t>
   </si>
   <si>
-    <t>5333.68</t>
-  </si>
-  <si>
-    <t>2004.00</t>
-  </si>
-  <si>
-    <t>14335.00</t>
-  </si>
-  <si>
-    <t>549.78</t>
+    <t>10824.00</t>
+  </si>
+  <si>
+    <t>99.60</t>
   </si>
   <si>
     <t>299.70</t>
   </si>
   <si>
-    <t>3559.90</t>
-  </si>
-  <si>
     <t>8625.00</t>
   </si>
   <si>
-    <t>275.77</t>
-  </si>
-  <si>
     <t>1729.95</t>
   </si>
   <si>
-    <t>765.00</t>
-  </si>
-  <si>
     <t>2249.50</t>
   </si>
   <si>
-    <t>4173.33</t>
-  </si>
-  <si>
     <t>1029.98</t>
   </si>
   <si>
-    <t>9255.74</t>
-  </si>
-  <si>
-    <t>17940.00</t>
-  </si>
-  <si>
-    <t>1678.60</t>
-  </si>
-  <si>
-    <t>94475.26</t>
-  </si>
-  <si>
-    <t>3510.00</t>
+    <t>-4485.00</t>
+  </si>
+  <si>
+    <t>4517.86</t>
   </si>
   <si>
     <t>449.90</t>
@@ -539,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,266 +482,129 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
